--- a/plot/Escape/level0/Rand.xlsx
+++ b/plot/Escape/level0/Rand.xlsx
@@ -10812,8 +10812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P398" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U400"/>
+    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35966,23 +35966,23 @@
         <v>16</v>
       </c>
       <c r="K394">
-        <f t="shared" ref="K394:K402" si="78">IF(A394&lt;0,0,1)</f>
+        <f t="shared" ref="K394:K400" si="78">IF(A394&lt;0,0,1)</f>
         <v>1</v>
       </c>
       <c r="L394">
-        <f t="shared" ref="L394:L402" si="79">IF(B394&lt;0,0,1)</f>
+        <f t="shared" ref="L394:L400" si="79">IF(B394&lt;0,0,1)</f>
         <v>1</v>
       </c>
       <c r="M394">
-        <f t="shared" ref="M394:M402" si="80">IF(C394&lt;0,0,1)</f>
+        <f t="shared" ref="M394:M400" si="80">IF(C394&lt;0,0,1)</f>
         <v>1</v>
       </c>
       <c r="N394">
-        <f t="shared" ref="N394:N402" si="81">IF(D394&lt;0,0,1)</f>
+        <f t="shared" ref="N394:N400" si="81">IF(D394&lt;0,0,1)</f>
         <v>1</v>
       </c>
       <c r="O394">
-        <f t="shared" ref="O394:O402" si="82">IF(E394&lt;0,0,1)</f>
+        <f t="shared" ref="O394:O400" si="82">IF(E394&lt;0,0,1)</f>
         <v>1</v>
       </c>
       <c r="Q394">

--- a/plot/Escape/level0/Rand.xlsx
+++ b/plot/Escape/level0/Rand.xlsx
@@ -10812,8 +10812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U400"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A393" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" topLeftCell="P398" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -35966,23 +35966,23 @@
         <v>16</v>
       </c>
       <c r="K394">
-        <f t="shared" ref="K394:K400" si="78">IF(A394&lt;0,0,1)</f>
+        <f t="shared" ref="K394:K402" si="78">IF(A394&lt;0,0,1)</f>
         <v>1</v>
       </c>
       <c r="L394">
-        <f t="shared" ref="L394:L400" si="79">IF(B394&lt;0,0,1)</f>
+        <f t="shared" ref="L394:L402" si="79">IF(B394&lt;0,0,1)</f>
         <v>1</v>
       </c>
       <c r="M394">
-        <f t="shared" ref="M394:M400" si="80">IF(C394&lt;0,0,1)</f>
+        <f t="shared" ref="M394:M402" si="80">IF(C394&lt;0,0,1)</f>
         <v>1</v>
       </c>
       <c r="N394">
-        <f t="shared" ref="N394:N400" si="81">IF(D394&lt;0,0,1)</f>
+        <f t="shared" ref="N394:N402" si="81">IF(D394&lt;0,0,1)</f>
         <v>1</v>
       </c>
       <c r="O394">
-        <f t="shared" ref="O394:O400" si="82">IF(E394&lt;0,0,1)</f>
+        <f t="shared" ref="O394:O402" si="82">IF(E394&lt;0,0,1)</f>
         <v>1</v>
       </c>
       <c r="Q394">
